--- a/exporters/NUDS.xlsx
+++ b/exporters/NUDS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>Rule type</t>
   </si>
@@ -117,7 +117,7 @@
     <t>ca_objects.preferred_labels</t>
   </si>
   <si>
-    <t>lang</t>
+    <t>lang_title</t>
   </si>
   <si>
     <t>@lang</t>
@@ -165,6 +165,90 @@
     <t>{ "context" : "ca_entities", "restrictToTypes" : [ "individual" ], "omitIfEmpty" : "ca_entities.preferred_labels" }</t>
   </si>
   <si>
+    <t>obverse</t>
+  </si>
+  <si>
+    <t>legend_obv</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>ca_objects.obverse.obverse_legend</t>
+  </si>
+  <si>
+    <t>{ "omitIfEmpty" : "ca_objects.obverse.obverse_legend" }</t>
+  </si>
+  <si>
+    <t>type_obv</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>typeDescription_obv</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ca_objects.obverse.obverse_type</t>
+  </si>
+  <si>
+    <t>{ "omitIfEmpty" : "ca_objects.obverse.obverse_type" }</t>
+  </si>
+  <si>
+    <t>lang_typeDescription_obv</t>
+  </si>
+  <si>
+    <t>symbol_obv</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>ca_objects.obverse.obverse_symbol</t>
+  </si>
+  <si>
+    <t>{ "omitIfEmpty" : "ca_objects.obverse.obverse_symbol" }</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>legend_rev</t>
+  </si>
+  <si>
+    <t>ca_objects.reverse.reverse_legend</t>
+  </si>
+  <si>
+    <t>{ "omitIfEmpty" : "ca_objects.reverse.reverse_legend" }</t>
+  </si>
+  <si>
+    <t>type_rev</t>
+  </si>
+  <si>
+    <t>typeDescription_rev</t>
+  </si>
+  <si>
+    <t>ca_objects.reverse.reverse_type</t>
+  </si>
+  <si>
+    <t>{ "omitIfEmpty" : "ca_objects.reverse.reverse_type" }</t>
+  </si>
+  <si>
+    <t>lang_typeDescription_rev</t>
+  </si>
+  <si>
+    <t>symbol_rev</t>
+  </si>
+  <si>
+    <t>ca_objects.reverse.reverse_symbol</t>
+  </si>
+  <si>
+    <t>{ "omitIfEmpty" : "ca_objects.reverse.reverse_symbol" }</t>
+  </si>
+  <si>
     <t>physDesc</t>
   </si>
   <si>
@@ -174,7 +258,7 @@
     <t>ca_objects.measurements_numismatic.axis</t>
   </si>
   <si>
-    <t>{ "omitIfEmpty" : "ca_objects.measurements_numismatic.axis" }</t>
+    <t>{ "omitIfEmpty" : "ca_objects.measurements_numismatic.axis", "suffix" : " o'clock" }</t>
   </si>
   <si>
     <t>measurementsSet</t>
@@ -223,6 +307,9 @@
   </si>
   <si>
     <t>thickness_units</t>
+  </si>
+  <si>
+    <t>ca_objects.ot_temp.value_longtext2</t>
   </si>
   <si>
     <t>Setting</t>
@@ -289,11 +376,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -320,14 +408,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -407,23 +490,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,19 +514,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,20 +547,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9540816326531"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8622448979592"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.4234693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="75.5867346938775"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -782,7 +865,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>45</v>
@@ -816,7 +899,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>49</v>
@@ -833,13 +916,13 @@
         <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,19 +944,19 @@
         <v>7</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,16 +964,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,36 +981,33 @@
         <v>7</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,106 +1015,336 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="9" t="s">
+    <row r="45" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>81</v>
+      <c r="D45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1066,26 +1376,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1093,7 +1403,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
